--- a/2 - Resultado do processamento/Nao_Encontrados_MyMaps_Bairro.xlsx
+++ b/2 - Resultado do processamento/Nao_Encontrados_MyMaps_Bairro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ED179B-03E1-4ACA-BA6E-F3F1244C101D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F3160-DD20-4D89-84E6-40BFE8001030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/2 - Resultado do processamento/Nao_Encontrados_MyMaps_Bairro.xlsx
+++ b/2 - Resultado do processamento/Nao_Encontrados_MyMaps_Bairro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\2 - Resultado do processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F3160-DD20-4D89-84E6-40BFE8001030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A53F511-A19A-43FC-940F-21F60D0F0F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
